--- a/data/trans_orig/P64D$andando_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P64D$andando_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>36675</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22199</v>
+        <v>23025</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53056</v>
+        <v>54977</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3498832211676411</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2117753569401173</v>
+        <v>0.2196566230162064</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.506161312213913</v>
+        <v>0.524486551518626</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -762,19 +762,19 @@
         <v>30602</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20154</v>
+        <v>19926</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44824</v>
+        <v>42725</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3335598236996267</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2196782697236737</v>
+        <v>0.2171901209299776</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4885873919898207</v>
+        <v>0.465707848562936</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -783,19 +783,19 @@
         <v>67277</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51104</v>
+        <v>48423</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>90008</v>
+        <v>88478</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3422645430135282</v>
+        <v>0.342264543013528</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2599879752998829</v>
+        <v>0.2463452300901391</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.457907633898662</v>
+        <v>0.450121609106194</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>9327</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2324</v>
+        <v>2329</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26793</v>
+        <v>24114</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.08898458610300396</v>
+        <v>0.08898458610300394</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02217298787984999</v>
+        <v>0.02222276143821731</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2556074532510788</v>
+        <v>0.2300448794661597</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -846,19 +846,19 @@
         <v>9327</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2361</v>
+        <v>2398</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>26939</v>
+        <v>29139</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04745248939800269</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0120124677991701</v>
+        <v>0.01220076309742668</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1370500567637112</v>
+        <v>0.1482427640552848</v>
       </c>
     </row>
     <row r="6">
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15252</v>
+        <v>16315</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04003671986281274</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1455028525282369</v>
+        <v>0.1556425652116574</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11155</v>
+        <v>13308</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03654150429020091</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1215862115067171</v>
+        <v>0.1450601255239534</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -917,19 +917,19 @@
         <v>7549</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2698</v>
+        <v>1762</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>19724</v>
+        <v>19613</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03840538529663846</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01372433904192737</v>
+        <v>0.008963048706404408</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1003431511200023</v>
+        <v>0.09978093938842357</v>
       </c>
     </row>
     <row r="7">
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9374</v>
+        <v>11008</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02466258704846984</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.102177028318672</v>
+        <v>0.1199897689376507</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15202</v>
+        <v>11251</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01151085817387404</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07733984360839628</v>
+        <v>0.05723691016594434</v>
       </c>
     </row>
     <row r="8">
@@ -1009,19 +1009,19 @@
         <v>52600</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>36451</v>
+        <v>36426</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>68914</v>
+        <v>68732</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5018072942825017</v>
+        <v>0.5018072942825018</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.347748109719395</v>
+        <v>0.3475106128406104</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6574415485016787</v>
+        <v>0.6557073767699125</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>30</v>
@@ -1030,19 +1030,19 @@
         <v>49614</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>36483</v>
+        <v>37328</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>61347</v>
+        <v>62138</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5407915333346522</v>
+        <v>0.5407915333346524</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3976631566539747</v>
+        <v>0.4068732150319844</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6686860471365342</v>
+        <v>0.6773004046117697</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>55</v>
@@ -1051,19 +1051,19 @@
         <v>102214</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>83915</v>
+        <v>80783</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>125342</v>
+        <v>123654</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5200025487326446</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4269112749961535</v>
+        <v>0.4109778005282914</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6376632791590616</v>
+        <v>0.6290775975879058</v>
       </c>
     </row>
     <row r="9">
@@ -1080,19 +1080,19 @@
         <v>16046</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7435</v>
+        <v>7139</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>28987</v>
+        <v>29010</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1530841420736932</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07092737538195251</v>
+        <v>0.06810739849474969</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2765383871234358</v>
+        <v>0.2767529554664256</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>12</v>
@@ -1101,19 +1101,19 @@
         <v>19512</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>10776</v>
+        <v>10810</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>31058</v>
+        <v>31031</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2126806668945956</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.117453481605269</v>
+        <v>0.1178265104965555</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3385280429625343</v>
+        <v>0.3382384528840964</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>20</v>
@@ -1122,19 +1122,19 @@
         <v>35558</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>23948</v>
+        <v>23044</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>52986</v>
+        <v>52891</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1808998429781015</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1218354395990513</v>
+        <v>0.1172332208086794</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2695594362017998</v>
+        <v>0.2690770109099375</v>
       </c>
     </row>
     <row r="10">
@@ -1155,19 +1155,19 @@
         <v>81078</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>62845</v>
+        <v>64009</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>103237</v>
+        <v>103222</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.204783517605869</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1587324856778806</v>
+        <v>0.1616719098838148</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2607526712269806</v>
+        <v>0.2607144362109227</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>111</v>
@@ -1176,19 +1176,19 @@
         <v>114031</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>95044</v>
+        <v>96467</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>130938</v>
+        <v>131964</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3618649738199932</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3016120335665622</v>
+        <v>0.3061273095523357</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4155203472990803</v>
+        <v>0.4187745209720897</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>169</v>
@@ -1197,19 +1197,19 @@
         <v>195109</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>169388</v>
+        <v>170455</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>224689</v>
+        <v>224194</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2743990736023053</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2382259317818415</v>
+        <v>0.2397258213481693</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3160004894383464</v>
+        <v>0.3153045907266795</v>
       </c>
     </row>
     <row r="11">
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18199</v>
+        <v>13530</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.008957565207358823</v>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04596552656577661</v>
+        <v>0.03417413502354072</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1247,19 +1247,19 @@
         <v>4841</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1820</v>
+        <v>1799</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11077</v>
+        <v>10694</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0153622607578475</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.005774071020935016</v>
+        <v>0.005709112581880454</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03515153232537092</v>
+        <v>0.03393584554383537</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -1268,19 +1268,19 @@
         <v>8387</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3707</v>
+        <v>3709</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>19870</v>
+        <v>19069</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0117960061823864</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005212820145842767</v>
+        <v>0.005216816227713481</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02794452905284289</v>
+        <v>0.02681898008991831</v>
       </c>
     </row>
     <row r="12">
@@ -1297,19 +1297,19 @@
         <v>24822</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13682</v>
+        <v>13280</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>41251</v>
+        <v>40236</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06269557799542735</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03455654461069311</v>
+        <v>0.03354127297840672</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1041912397949158</v>
+        <v>0.1016266113942235</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -1318,19 +1318,19 @@
         <v>10987</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5585</v>
+        <v>5341</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20325</v>
+        <v>19763</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0348655503037142</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01772390449625665</v>
+        <v>0.0169501467963824</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06449928101405936</v>
+        <v>0.062715276093017</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>24</v>
@@ -1339,19 +1339,19 @@
         <v>35809</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>23693</v>
+        <v>23594</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>51833</v>
+        <v>54975</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.05036183155680334</v>
+        <v>0.05036183155680333</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03332164083470844</v>
+        <v>0.03318283319634221</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07289684340796115</v>
+        <v>0.07731579108591431</v>
       </c>
     </row>
     <row r="13">
@@ -1368,19 +1368,19 @@
         <v>5735</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15665</v>
+        <v>13188</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01448517820642099</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003312634226019631</v>
+        <v>0.003293141536008487</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03956673457286564</v>
+        <v>0.03330860377263434</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1389,19 +1389,19 @@
         <v>6453</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2446</v>
+        <v>2506</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14544</v>
+        <v>13847</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.020478032772702</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00776206234563349</v>
+        <v>0.007953802988094951</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04615304309495485</v>
+        <v>0.04394203419896024</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -1410,19 +1410,19 @@
         <v>12188</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5686</v>
+        <v>6242</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22085</v>
+        <v>22896</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01714109897958175</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007996571090393879</v>
+        <v>0.008778784837825796</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03105981160097803</v>
+        <v>0.03220137645264627</v>
       </c>
     </row>
     <row r="14">
@@ -1439,19 +1439,19 @@
         <v>284006</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>258658</v>
+        <v>259871</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>305318</v>
+        <v>305746</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7173322713930609</v>
+        <v>0.7173322713930608</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6533080497377202</v>
+        <v>0.6563716392746689</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7711608955410421</v>
+        <v>0.7722429682001819</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>181</v>
@@ -1460,19 +1460,19 @@
         <v>192900</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>172990</v>
+        <v>174145</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>209622</v>
+        <v>211166</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6121494373365464</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5489667780562609</v>
+        <v>0.5526315629897764</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6652162074108018</v>
+        <v>0.6701149246142348</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>357</v>
@@ -1481,19 +1481,19 @@
         <v>476907</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>448114</v>
+        <v>443952</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>507511</v>
+        <v>501722</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6707172115979458</v>
+        <v>0.6707172115979457</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6302235209785343</v>
+        <v>0.6243701963196492</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7137591198520761</v>
+        <v>0.7056172750018193</v>
       </c>
     </row>
     <row r="15">
@@ -1510,19 +1510,19 @@
         <v>32478</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>21095</v>
+        <v>21244</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>48374</v>
+        <v>50109</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.08203114848650693</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05328124220615916</v>
+        <v>0.05365808694580017</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1221816358327917</v>
+        <v>0.1265626210042166</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>31</v>
@@ -1531,19 +1531,19 @@
         <v>33677</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>23632</v>
+        <v>24815</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>46443</v>
+        <v>46263</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1068710658526772</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07499254237170012</v>
+        <v>0.07874826208717794</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1473823392880586</v>
+        <v>0.1468114835619031</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>52</v>
@@ -1552,19 +1552,19 @@
         <v>66155</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>48492</v>
+        <v>49185</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>86614</v>
+        <v>85439</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.09303973409571006</v>
+        <v>0.09303973409571005</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06819854460019853</v>
+        <v>0.0691733556932904</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1218128610846475</v>
+        <v>0.1201605439013229</v>
       </c>
     </row>
     <row r="16">
@@ -1585,19 +1585,19 @@
         <v>113677</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>94264</v>
+        <v>95316</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>133510</v>
+        <v>134467</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2118872379176688</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1757021602673052</v>
+        <v>0.1776646999062833</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2488556125187421</v>
+        <v>0.2506393533233738</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>197</v>
@@ -1606,19 +1606,19 @@
         <v>138826</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>122655</v>
+        <v>122545</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>155163</v>
+        <v>154542</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3496891013423723</v>
+        <v>0.3496891013423722</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3089545957438417</v>
+        <v>0.3086773207643415</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3908396113169269</v>
+        <v>0.389274995049767</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>302</v>
@@ -1627,19 +1627,19 @@
         <v>252503</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>227552</v>
+        <v>228171</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>279736</v>
+        <v>279409</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.27049195941039</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2437634015693338</v>
+        <v>0.2444262925351321</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2996655617035447</v>
+        <v>0.299314542212084</v>
       </c>
     </row>
     <row r="17">
@@ -1656,19 +1656,19 @@
         <v>9356</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4396</v>
+        <v>4525</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17060</v>
+        <v>17533</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01743834361025717</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008193930952017942</v>
+        <v>0.008434957795267246</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03179896489660317</v>
+        <v>0.03268131854504629</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -1677,19 +1677,19 @@
         <v>5551</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2406</v>
+        <v>2349</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11267</v>
+        <v>10594</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.01398191573794646</v>
+        <v>0.01398191573794645</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006061530772865888</v>
+        <v>0.00591790721210603</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02838167039210788</v>
+        <v>0.0266856601792381</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -1698,19 +1698,19 @@
         <v>14906</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8983</v>
+        <v>8775</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24292</v>
+        <v>24530</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01596838531083888</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.009623103962084377</v>
+        <v>0.00939962897073323</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.026022124457578</v>
+        <v>0.02627794755146411</v>
       </c>
     </row>
     <row r="18">
@@ -1727,19 +1727,19 @@
         <v>23348</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14537</v>
+        <v>14135</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>36252</v>
+        <v>34799</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04351943702783</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02709702941474277</v>
+        <v>0.026345999445516</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06757116160083236</v>
+        <v>0.06486268012656432</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>19</v>
@@ -1748,19 +1748,19 @@
         <v>14085</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8627</v>
+        <v>8623</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>21245</v>
+        <v>21367</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.03547753731259926</v>
+        <v>0.03547753731259923</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02173060073113711</v>
+        <v>0.0217196638183914</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05351296896456145</v>
+        <v>0.05382246621179259</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>38</v>
@@ -1769,19 +1769,19 @@
         <v>37433</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>27773</v>
+        <v>26716</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>50347</v>
+        <v>48963</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04009935778237761</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02975137305452975</v>
+        <v>0.02861959262193846</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05393343769412808</v>
+        <v>0.05245124808687388</v>
       </c>
     </row>
     <row r="19">
@@ -1798,19 +1798,19 @@
         <v>6185</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2232</v>
+        <v>2470</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13176</v>
+        <v>13318</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01152792376450153</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00415957033662879</v>
+        <v>0.004604258926053846</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02456022947814208</v>
+        <v>0.02482336020098993</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1822,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4610</v>
+        <v>5204</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.003764382932793426</v>
+        <v>0.003764382932793425</v>
       </c>
       <c r="O19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01161292222264946</v>
+        <v>0.01310878920485442</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1840,19 +1840,19 @@
         <v>7679</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3259</v>
+        <v>2961</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15174</v>
+        <v>15156</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.00822622568196269</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003491325846444586</v>
+        <v>0.0031721802398092</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01625535916378778</v>
+        <v>0.01623582816553836</v>
       </c>
     </row>
     <row r="20">
@@ -1869,19 +1869,19 @@
         <v>408355</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>387407</v>
+        <v>385509</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>430550</v>
+        <v>427018</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7611524145918119</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7221065053019822</v>
+        <v>0.7185675870280301</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8025217324466123</v>
+        <v>0.7959388712909096</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>355</v>
@@ -1890,19 +1890,19 @@
         <v>253953</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>236763</v>
+        <v>236282</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>269774</v>
+        <v>271118</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.639682007071773</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5963813513705951</v>
+        <v>0.5951698278078091</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6795326129722161</v>
+        <v>0.682917911144879</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>716</v>
@@ -1911,19 +1911,19 @@
         <v>662308</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>635168</v>
+        <v>632566</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>688375</v>
+        <v>689493</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7094931755554037</v>
+        <v>0.7094931755554038</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6804188608741637</v>
+        <v>0.6776321887084649</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7374165015612149</v>
+        <v>0.7386150831726009</v>
       </c>
     </row>
     <row r="21">
@@ -1940,19 +1940,19 @@
         <v>43602</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>30956</v>
+        <v>31606</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>58655</v>
+        <v>58466</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08127230048024263</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05770007047614036</v>
+        <v>0.05891185066257551</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.109330208397074</v>
+        <v>0.1089774114507243</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>43</v>
@@ -1961,19 +1961,19 @@
         <v>34531</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>25113</v>
+        <v>25648</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>46121</v>
+        <v>47153</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08697974122362302</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06325692280872293</v>
+        <v>0.06460512242800484</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1161739242834728</v>
+        <v>0.1187728953951144</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>81</v>
@@ -1982,19 +1982,19 @@
         <v>78133</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>63121</v>
+        <v>62548</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>96524</v>
+        <v>96332</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.08369957516934567</v>
+        <v>0.08369957516934566</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06761778843748498</v>
+        <v>0.06700453971310166</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1034002664430205</v>
+        <v>0.1031945938807767</v>
       </c>
     </row>
     <row r="22">
@@ -2015,19 +2015,19 @@
         <v>112614</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>94544</v>
+        <v>93616</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>131915</v>
+        <v>133465</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2071825212601491</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1739383883854451</v>
+        <v>0.1722315582640859</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2426916869653525</v>
+        <v>0.2455431655010989</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>248</v>
@@ -2036,19 +2036,19 @@
         <v>155096</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>141014</v>
+        <v>138844</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>172879</v>
+        <v>171254</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3408815510924353</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3099308520000686</v>
+        <v>0.3051612156840979</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3799653713249302</v>
+        <v>0.3763951298600011</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>359</v>
@@ -2057,19 +2057,19 @@
         <v>267710</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>242411</v>
+        <v>243459</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>294281</v>
+        <v>291229</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2681028534875229</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2427665324477175</v>
+        <v>0.2438164903927132</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2947129860608093</v>
+        <v>0.291655823843286</v>
       </c>
     </row>
     <row r="23">
@@ -2086,19 +2086,19 @@
         <v>12888</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7144</v>
+        <v>6822</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>24240</v>
+        <v>22621</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02371091214899686</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01314283607086123</v>
+        <v>0.01255088018796694</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04459583539345748</v>
+        <v>0.04161800212810607</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -2107,19 +2107,19 @@
         <v>4745</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2121</v>
+        <v>2088</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>9602</v>
+        <v>9562</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01042872809318787</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.004660807359298131</v>
+        <v>0.004589573162394239</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02110470034777048</v>
+        <v>0.02101619136370153</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>19</v>
@@ -2128,19 +2128,19 @@
         <v>17633</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10603</v>
+        <v>10605</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>27027</v>
+        <v>27335</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01765884829782288</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01061898015836776</v>
+        <v>0.01062095019824333</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.027066487699792</v>
+        <v>0.02737557254887593</v>
       </c>
     </row>
     <row r="24">
@@ -2157,19 +2157,19 @@
         <v>15477</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8764</v>
+        <v>8702</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25422</v>
+        <v>25173</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0284741591059906</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0161239438183768</v>
+        <v>0.01600969063256135</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04677036190067043</v>
+        <v>0.04631301590973427</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>28</v>
@@ -2178,19 +2178,19 @@
         <v>19275</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>12799</v>
+        <v>13425</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>27136</v>
+        <v>27742</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.04236488903723589</v>
+        <v>0.04236488903723588</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02813006962607315</v>
+        <v>0.02950614957353311</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05964129365824664</v>
+        <v>0.06097422519303277</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>42</v>
@@ -2199,19 +2199,19 @@
         <v>34753</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>25839</v>
+        <v>24772</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>46814</v>
+        <v>47624</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03480350856614531</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0258766073948265</v>
+        <v>0.02480812656810857</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04688231883882993</v>
+        <v>0.04769429348013612</v>
       </c>
     </row>
     <row r="25">
@@ -2228,19 +2228,19 @@
         <v>4470</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1351</v>
+        <v>1393</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11093</v>
+        <v>11946</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.008224130184181477</v>
+        <v>0.008224130184181475</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002485424991434162</v>
+        <v>0.002562103648248769</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02040886089452078</v>
+        <v>0.0219785889450551</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -2249,19 +2249,19 @@
         <v>2735</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6802</v>
+        <v>6269</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.006011142691283665</v>
+        <v>0.006011142691283664</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001534394664523547</v>
+        <v>0.00152993523514696</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01495037325073802</v>
+        <v>0.01377833572672298</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -2270,19 +2270,19 @@
         <v>7205</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3092</v>
+        <v>3328</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>13444</v>
+        <v>13862</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.007215776320645797</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003096174239507964</v>
+        <v>0.003332750977570629</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01346388495298291</v>
+        <v>0.01388187659495326</v>
       </c>
     </row>
     <row r="26">
@@ -2299,19 +2299,19 @@
         <v>426416</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>407074</v>
+        <v>404722</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>446398</v>
+        <v>446232</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7845014056253855</v>
+        <v>0.7845014056253856</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7489179246657071</v>
+        <v>0.744589827010082</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8212644487494121</v>
+        <v>0.8209584479017887</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>465</v>
@@ -2320,19 +2320,19 @@
         <v>292663</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>277053</v>
+        <v>276898</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>308261</v>
+        <v>307491</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6432367205149193</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6089267038302351</v>
+        <v>0.6085870490398989</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6775185072899107</v>
+        <v>0.6758273831345866</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>878</v>
@@ -2341,19 +2341,19 @@
         <v>719079</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>691967</v>
+        <v>692951</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>746489</v>
+        <v>743820</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7201337616737407</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6929822937512683</v>
+        <v>0.6939680632660562</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7475845231119896</v>
+        <v>0.7449117331625175</v>
       </c>
     </row>
     <row r="27">
@@ -2370,19 +2370,19 @@
         <v>33650</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>23356</v>
+        <v>23700</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>48315</v>
+        <v>45263</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.06190870675116499</v>
+        <v>0.06190870675116497</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04296999094562351</v>
+        <v>0.04360199837710141</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08888827659587874</v>
+        <v>0.08327205953831926</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>77</v>
@@ -2391,19 +2391,19 @@
         <v>54986</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>44020</v>
+        <v>44255</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>67808</v>
+        <v>67299</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1208522213330212</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.09675003121320457</v>
+        <v>0.0972663147409681</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1490326115427964</v>
+        <v>0.1479149192281979</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>107</v>
@@ -2412,19 +2412,19 @@
         <v>88636</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>73712</v>
+        <v>73247</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>106032</v>
+        <v>107116</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.08876648197571339</v>
+        <v>0.08876648197571338</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07382008968311486</v>
+        <v>0.07335443618826858</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1061876253764254</v>
+        <v>0.1072736364809973</v>
       </c>
     </row>
     <row r="28">
@@ -2445,19 +2445,19 @@
         <v>84611</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>70876</v>
+        <v>70007</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>100948</v>
+        <v>100725</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.2584271869814856</v>
+        <v>0.2584271869814855</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2164787915121871</v>
+        <v>0.2138220261375816</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3083280481114458</v>
+        <v>0.307644180772289</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>180</v>
@@ -2466,19 +2466,19 @@
         <v>105135</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>93724</v>
+        <v>92314</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>117021</v>
+        <v>116316</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.4517430658150391</v>
+        <v>0.451743065815039</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4027103401986176</v>
+        <v>0.3966543590768528</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5028122576245496</v>
+        <v>0.4997858396922039</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>276</v>
@@ -2487,19 +2487,19 @@
         <v>189746</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>172170</v>
+        <v>170584</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>209408</v>
+        <v>211010</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.3387481712023333</v>
+        <v>0.3387481712023332</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3073714516386843</v>
+        <v>0.3045386656696583</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3738511632152836</v>
+        <v>0.3767115254497448</v>
       </c>
     </row>
     <row r="29">
@@ -2516,19 +2516,19 @@
         <v>2905</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8609</v>
+        <v>6955</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.008871723576287715</v>
+        <v>0.008871723576287712</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.002885783292674823</v>
+        <v>0.002870658032011857</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02629320711906639</v>
+        <v>0.0212434104584092</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4983</v>
+        <v>4299</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.006150459037076154</v>
@@ -2549,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02140993006177918</v>
+        <v>0.01847037057214123</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5</v>
@@ -2558,19 +2558,19 @@
         <v>4336</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1451</v>
+        <v>1469</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8936</v>
+        <v>9709</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.007741062983719637</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.002590756788904546</v>
+        <v>0.002621964394419283</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01595372526347442</v>
+        <v>0.01733315347633299</v>
       </c>
     </row>
     <row r="30">
@@ -2587,19 +2587,19 @@
         <v>16693</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10426</v>
+        <v>9561</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>26690</v>
+        <v>26362</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.05098606953226049</v>
+        <v>0.05098606953226047</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03184387206486909</v>
+        <v>0.02920093700396054</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0815186438690578</v>
+        <v>0.08051644007792866</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>24</v>
@@ -2608,19 +2608,19 @@
         <v>14698</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9545</v>
+        <v>9716</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>21505</v>
+        <v>21445</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.06315292444035381</v>
+        <v>0.06315292444035382</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04101350414426162</v>
+        <v>0.0417491124903077</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.09240167954223023</v>
+        <v>0.09214607024817743</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>41</v>
@@ -2629,19 +2629,19 @@
         <v>31391</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>22851</v>
+        <v>22127</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>42529</v>
+        <v>41821</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05604128676007927</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04079534830719266</v>
+        <v>0.03950329457375156</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07592641261284803</v>
+        <v>0.07466274958539411</v>
       </c>
     </row>
     <row r="31">
@@ -2658,19 +2658,19 @@
         <v>4327</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1725</v>
+        <v>1592</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>10692</v>
+        <v>9629</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01321474479772483</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.005270056851294624</v>
+        <v>0.004862684642230331</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03265606807498715</v>
+        <v>0.02941020652435181</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -2692,19 +2692,19 @@
         <v>4327</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>9257</v>
+        <v>9559</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.007724138879653931</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.002854142937492371</v>
+        <v>0.002850171283171799</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01652703180113682</v>
+        <v>0.01706533805662587</v>
       </c>
     </row>
     <row r="32">
@@ -2721,19 +2721,19 @@
         <v>227382</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>210536</v>
+        <v>210980</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>242189</v>
+        <v>243593</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.694495592625066</v>
+        <v>0.6944955926250658</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6430427066974792</v>
+        <v>0.6443973496463757</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7397210452408215</v>
+        <v>0.7440102751566027</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>212</v>
@@ -2742,19 +2742,19 @@
         <v>123667</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>112543</v>
+        <v>110724</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>135715</v>
+        <v>135848</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.531371409817632</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4835736346066135</v>
+        <v>0.4757582025824714</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5831392210724968</v>
+        <v>0.5837089999086315</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>460</v>
@@ -2763,19 +2763,19 @@
         <v>351049</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>331130</v>
+        <v>329368</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>369675</v>
+        <v>369853</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6267189826933192</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5911579110565198</v>
+        <v>0.5880122095529023</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6599720101054073</v>
+        <v>0.6602898841518219</v>
       </c>
     </row>
     <row r="33">
@@ -2792,19 +2792,19 @@
         <v>31967</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>22305</v>
+        <v>22683</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>43289</v>
+        <v>44168</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.09763803071022394</v>
+        <v>0.09763803071022389</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.06812529313388353</v>
+        <v>0.06928216923517562</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.132216615304309</v>
+        <v>0.134904181980399</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>41</v>
@@ -2813,19 +2813,19 @@
         <v>27752</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>20191</v>
+        <v>20676</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>36206</v>
+        <v>36639</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1192436800611208</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.0867571399580304</v>
+        <v>0.08883901137251271</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1555704908412259</v>
+        <v>0.1574305974220768</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>75</v>
@@ -2834,19 +2834,19 @@
         <v>59719</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>47403</v>
+        <v>47324</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>72727</v>
+        <v>73746</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1066149809280006</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.08462718050726513</v>
+        <v>0.08448560170651415</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1298381126758184</v>
+        <v>0.1316576251189412</v>
       </c>
     </row>
     <row r="34">
@@ -2867,19 +2867,19 @@
         <v>428654</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>392180</v>
+        <v>388787</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>475265</v>
+        <v>472973</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2246388632526012</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2055243117350834</v>
+        <v>0.2037463681294059</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2490656408256705</v>
+        <v>0.24786466973608</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>756</v>
@@ -2888,19 +2888,19 @@
         <v>543690</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>510404</v>
+        <v>507902</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>577167</v>
+        <v>576102</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3645063182706986</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3421903674947679</v>
+        <v>0.3405130677230654</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3869504279306096</v>
+        <v>0.3862363767893331</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1142</v>
@@ -2909,19 +2909,19 @@
         <v>972344</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>924435</v>
+        <v>921545</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1026787</v>
+        <v>1026680</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.2860027964840825</v>
+        <v>0.2860027964840826</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2719109462146191</v>
+        <v>0.2710608481439207</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3020165496128742</v>
+        <v>0.3019849719331005</v>
       </c>
     </row>
     <row r="35">
@@ -2938,19 +2938,19 @@
         <v>38022</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>26007</v>
+        <v>24739</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>56730</v>
+        <v>57932</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01992578724657576</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01362897283458133</v>
+        <v>0.01296473296099605</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02972965084137843</v>
+        <v>0.03035942705031936</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>21</v>
@@ -2959,19 +2959,19 @@
         <v>16568</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>10613</v>
+        <v>10634</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>24974</v>
+        <v>24750</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01110774749341333</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.007115570315910978</v>
+        <v>0.007129485185654203</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01674358295999043</v>
+        <v>0.01659293274163633</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>49</v>
@@ -2980,19 +2980,19 @@
         <v>54590</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>38419</v>
+        <v>39454</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>75743</v>
+        <v>76423</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01605705593538122</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01130035394062965</v>
+        <v>0.01160502882632028</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02227899425208083</v>
+        <v>0.02247900702577365</v>
       </c>
     </row>
     <row r="36">
@@ -3009,19 +3009,19 @@
         <v>84537</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>64740</v>
+        <v>66094</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>106167</v>
+        <v>106864</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04430233687963146</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03392743544253445</v>
+        <v>0.03463674093350086</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05563770970534094</v>
+        <v>0.05600292724096193</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>83</v>
@@ -3030,19 +3030,19 @@
         <v>62397</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>49463</v>
+        <v>49893</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>77943</v>
+        <v>78539</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04183278929682718</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03316177841410457</v>
+        <v>0.03345011247294787</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05225509522088002</v>
+        <v>0.05265460849604842</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>149</v>
@@ -3051,19 +3051,19 @@
         <v>146934</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>124054</v>
+        <v>121687</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>173459</v>
+        <v>173866</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.04321887430455593</v>
+        <v>0.04321887430455594</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03648901087498931</v>
+        <v>0.03579282339505137</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0510207694452686</v>
+        <v>0.05114058933342541</v>
       </c>
     </row>
     <row r="37">
@@ -3080,19 +3080,19 @@
         <v>20716</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>12318</v>
+        <v>12830</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>31208</v>
+        <v>32583</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01085659136771679</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.006455447029263465</v>
+        <v>0.006723814262110123</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0163549431985714</v>
+        <v>0.01707535210493391</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>12</v>
@@ -3101,19 +3101,19 @@
         <v>12945</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>6475</v>
+        <v>6898</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>23311</v>
+        <v>25732</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.008678778872892499</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.004341245494498652</v>
+        <v>0.004624895301116283</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0156282319570901</v>
+        <v>0.01725153834037192</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>30</v>
@@ -3122,19 +3122,19 @@
         <v>33662</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>22865</v>
+        <v>22815</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>46776</v>
+        <v>48108</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.009901121487280401</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.006725425552698428</v>
+        <v>0.00671084512439418</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01375845674012851</v>
+        <v>0.01415036658896434</v>
       </c>
     </row>
     <row r="38">
@@ -3151,19 +3151,19 @@
         <v>1398758</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1354620</v>
+        <v>1350716</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1441383</v>
+        <v>1441380</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.7330281230803117</v>
+        <v>0.733028123080312</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7098972840323038</v>
+        <v>0.7078510502894906</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7553659590487641</v>
+        <v>0.755364499758494</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1243</v>
@@ -3172,19 +3172,19 @@
         <v>912798</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>879602</v>
+        <v>878135</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>947525</v>
+        <v>946430</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.6119673632375902</v>
+        <v>0.61196736323759</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5897120341572002</v>
+        <v>0.588728593235382</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6352494165956197</v>
+        <v>0.6345153015326277</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2466</v>
@@ -3193,19 +3193,19 @@
         <v>2311556</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2258475</v>
+        <v>2256810</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2366875</v>
+        <v>2369023</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.679915235718631</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6643020044436981</v>
+        <v>0.6638124359568103</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.6961865109463926</v>
+        <v>0.6968185156096185</v>
       </c>
     </row>
     <row r="39">
@@ -3222,19 +3222,19 @@
         <v>157744</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>130952</v>
+        <v>132244</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>185559</v>
+        <v>185082</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.08266680517370262</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.06862647780725617</v>
+        <v>0.06930309749398579</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.0972435650658646</v>
+        <v>0.096993283964197</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>204</v>
@@ -3243,19 +3243,19 @@
         <v>170458</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>149545</v>
+        <v>146689</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>196291</v>
+        <v>193290</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.1142801098429939</v>
+        <v>0.114280109842994</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1002592643976408</v>
+        <v>0.09834485033220097</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1315996809280773</v>
+        <v>0.1295877529929924</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>335</v>
@@ -3264,19 +3264,19 @@
         <v>328202</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>295117</v>
+        <v>296679</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>366900</v>
+        <v>367483</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.09653648426882781</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.08680504770128712</v>
+        <v>0.08726450139682146</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.107918916403278</v>
+        <v>0.1080904569527336</v>
       </c>
     </row>
     <row r="40">
